--- a/test/1. 各院彙整資料/傳播學院.xlsx
+++ b/test/1. 各院彙整資料/傳播學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{364E665A-BA7F-4565-B8D3-59F11AAD9206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F38FFBDA-6D0E-4862-BBDC-6C81FF9B51C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1E43F48-E86E-49B1-947F-9194E40BAB98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B18A3B4-DC9B-4F4A-A276-21EAEE66FB75}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13977DD0-4434-45AE-ACD3-1B87182CF86C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4400DC0-8230-43F3-A849-7BD88057A10B}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test/1. 各院彙整資料/傳播學院.xlsx
+++ b/test/1. 各院彙整資料/傳播學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B8DF31-2B3E-4ABA-8ADD-646B8B48B45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FBA2F-671D-4B29-A31D-6CF99A5B83F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{7724BB71-FDD3-4610-87B4-A17FEA766B3C}"/>
+    <workbookView xWindow="1950" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{7724BB71-FDD3-4610-87B4-A17FEA766B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="37">
   <si>
     <t>傳播學院</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>400 傳播學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>400 傳播學院</t>
   </si>
   <si>
     <t>401 新聞學系</t>
@@ -491,40 +488,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$12</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -532,14 +526,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$12</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -547,7 +541,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D29-4777-B20E-7012A515CB47}"/>
+              <c16:uniqueId val="{00000000-F830-49F6-90F4-4FE5F133EC39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -582,40 +576,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$12</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -623,14 +614,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$12</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -638,7 +629,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D29-4777-B20E-7012A515CB47}"/>
+              <c16:uniqueId val="{00000001-F830-49F6-90F4-4FE5F133EC39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -673,40 +664,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$12</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -714,14 +702,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$12</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -729,7 +717,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6D29-4777-B20E-7012A515CB47}"/>
+              <c16:uniqueId val="{00000002-F830-49F6-90F4-4FE5F133EC39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -840,7 +828,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6D29-4777-B20E-7012A515CB47}"/>
+                  <c16:uniqueId val="{00000003-F830-49F6-90F4-4FE5F133EC39}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -912,40 +900,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$12</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -953,14 +938,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$12</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -969,7 +954,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6D29-4777-B20E-7012A515CB47}"/>
+              <c16:uniqueId val="{00000004-F830-49F6-90F4-4FE5F133EC39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1250,40 +1235,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$12</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1291,14 +1273,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$12</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1306,7 +1288,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E009-4404-A320-7EB3C1D04042}"/>
+              <c16:uniqueId val="{00000000-BC18-4660-9286-61AC8616BCF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1341,40 +1323,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$12</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1382,14 +1361,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$12</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1397,7 +1376,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E009-4404-A320-7EB3C1D04042}"/>
+              <c16:uniqueId val="{00000001-BC18-4660-9286-61AC8616BCF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1432,40 +1411,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$12</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1473,14 +1449,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$12</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1488,7 +1464,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E009-4404-A320-7EB3C1D04042}"/>
+              <c16:uniqueId val="{00000002-BC18-4660-9286-61AC8616BCF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1599,7 +1575,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E009-4404-A320-7EB3C1D04042}"/>
+                  <c16:uniqueId val="{00000003-BC18-4660-9286-61AC8616BCF9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1671,40 +1647,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$12</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1712,14 +1685,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$12</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1728,7 +1701,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E009-4404-A320-7EB3C1D04042}"/>
+              <c16:uniqueId val="{00000004-BC18-4660-9286-61AC8616BCF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2009,40 +1982,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$12</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2050,14 +2020,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$12</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2065,7 +2035,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82F8-4FEC-83B5-0D2D2B608BAA}"/>
+              <c16:uniqueId val="{00000000-75A7-4DF1-9B6F-2A8B75A0A4C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2100,40 +2070,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$12</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2141,14 +2108,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$12</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2156,7 +2123,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-82F8-4FEC-83B5-0D2D2B608BAA}"/>
+              <c16:uniqueId val="{00000001-75A7-4DF1-9B6F-2A8B75A0A4C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2191,40 +2158,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$12</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2232,14 +2196,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$12</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2247,7 +2211,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-82F8-4FEC-83B5-0D2D2B608BAA}"/>
+              <c16:uniqueId val="{00000002-75A7-4DF1-9B6F-2A8B75A0A4C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2358,7 +2322,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-82F8-4FEC-83B5-0D2D2B608BAA}"/>
+                  <c16:uniqueId val="{00000003-75A7-4DF1-9B6F-2A8B75A0A4C3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2430,40 +2394,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$12</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2471,14 +2432,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$12</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2487,7 +2448,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-82F8-4FEC-83B5-0D2D2B608BAA}"/>
+              <c16:uniqueId val="{00000004-75A7-4DF1-9B6F-2A8B75A0A4C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2768,40 +2729,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$12</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2809,14 +2767,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$12</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2824,7 +2782,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41CE-4342-BCED-8361A7F71FEA}"/>
+              <c16:uniqueId val="{00000000-2164-4CD4-9B34-FDCDCFEB907C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2859,40 +2817,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$12</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2900,14 +2855,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$12</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2915,7 +2870,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-41CE-4342-BCED-8361A7F71FEA}"/>
+              <c16:uniqueId val="{00000001-2164-4CD4-9B34-FDCDCFEB907C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2950,40 +2905,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$12</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2991,14 +2943,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$12</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3006,7 +2958,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-41CE-4342-BCED-8361A7F71FEA}"/>
+              <c16:uniqueId val="{00000002-2164-4CD4-9B34-FDCDCFEB907C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3117,7 +3069,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-41CE-4342-BCED-8361A7F71FEA}"/>
+                  <c16:uniqueId val="{00000003-2164-4CD4-9B34-FDCDCFEB907C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3189,40 +3141,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$12</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3230,14 +3179,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$12</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3246,7 +3195,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-41CE-4342-BCED-8361A7F71FEA}"/>
+              <c16:uniqueId val="{00000004-2164-4CD4-9B34-FDCDCFEB907C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3527,40 +3476,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$12</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3568,14 +3514,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$12</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3583,7 +3529,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-728B-451F-A1DF-45EAD17D48FC}"/>
+              <c16:uniqueId val="{00000000-F24A-4CEA-A6B6-EDAAFFEABB71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3618,40 +3564,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$12</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3659,14 +3602,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$12</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3674,7 +3617,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-728B-451F-A1DF-45EAD17D48FC}"/>
+              <c16:uniqueId val="{00000001-F24A-4CEA-A6B6-EDAAFFEABB71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3709,40 +3652,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$12</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3750,14 +3690,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$12</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3765,7 +3705,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-728B-451F-A1DF-45EAD17D48FC}"/>
+              <c16:uniqueId val="{00000002-F24A-4CEA-A6B6-EDAAFFEABB71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3876,7 +3816,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-728B-451F-A1DF-45EAD17D48FC}"/>
+                  <c16:uniqueId val="{00000003-F24A-4CEA-A6B6-EDAAFFEABB71}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3948,40 +3888,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$12</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3989,14 +3926,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$12</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4005,7 +3942,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-728B-451F-A1DF-45EAD17D48FC}"/>
+              <c16:uniqueId val="{00000004-F24A-4CEA-A6B6-EDAAFFEABB71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4286,40 +4223,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$12</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4327,14 +4261,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$12</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4342,7 +4276,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF5D-4351-B8E9-AC131A584C0E}"/>
+              <c16:uniqueId val="{00000000-C703-4199-8789-BDAA4D8D2F19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4377,40 +4311,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$12</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4418,14 +4349,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$12</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4433,7 +4364,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF5D-4351-B8E9-AC131A584C0E}"/>
+              <c16:uniqueId val="{00000001-C703-4199-8789-BDAA4D8D2F19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4468,40 +4399,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$12</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4509,14 +4437,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$12</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4524,7 +4452,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF5D-4351-B8E9-AC131A584C0E}"/>
+              <c16:uniqueId val="{00000002-C703-4199-8789-BDAA4D8D2F19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4635,7 +4563,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CF5D-4351-B8E9-AC131A584C0E}"/>
+                  <c16:uniqueId val="{00000003-C703-4199-8789-BDAA4D8D2F19}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4707,40 +4635,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$12</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4748,14 +4673,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$12</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4764,7 +4689,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CF5D-4351-B8E9-AC131A584C0E}"/>
+              <c16:uniqueId val="{00000004-C703-4199-8789-BDAA4D8D2F19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5045,40 +4970,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$12</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5086,14 +5008,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$12</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5101,7 +5023,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4A1-46E8-8B07-2AC5DD1E4B69}"/>
+              <c16:uniqueId val="{00000000-F7D1-408B-A631-ECA9E881ECE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5136,40 +5058,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$12</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5177,14 +5096,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$12</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -5192,7 +5111,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D4A1-46E8-8B07-2AC5DD1E4B69}"/>
+              <c16:uniqueId val="{00000001-F7D1-408B-A631-ECA9E881ECE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5227,40 +5146,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$12</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5268,14 +5184,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$12</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -5283,7 +5199,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D4A1-46E8-8B07-2AC5DD1E4B69}"/>
+              <c16:uniqueId val="{00000002-F7D1-408B-A631-ECA9E881ECE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5394,7 +5310,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D4A1-46E8-8B07-2AC5DD1E4B69}"/>
+                  <c16:uniqueId val="{00000003-F7D1-408B-A631-ECA9E881ECE5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5466,40 +5382,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$12</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>傳播學院</c:v>
+                  <c:v>新聞系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>新聞系</c:v>
+                  <c:v>廣告系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>廣告系</c:v>
+                  <c:v>廣電系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>廣電系</c:v>
+                  <c:v>不分系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>不分系</c:v>
+                  <c:v>國傳碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>國傳碩</c:v>
+                  <c:v>傳碩在</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>傳碩在</c:v>
+                  <c:v>數位碩</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>數位碩</c:v>
+                  <c:v>傳播博</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5507,14 +5420,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$12</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -5523,7 +5436,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D4A1-46E8-8B07-2AC5DD1E4B69}"/>
+              <c16:uniqueId val="{00000004-F7D1-408B-A631-ECA9E881ECE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5752,7 +5665,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AF0653-04BA-4B0E-8030-32B40CC10A54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F390ED48-4125-401A-B95F-05ECF9913441}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5785,7 +5698,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA2B2E2-FFD7-407D-9556-217DD9B6A721}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE7E5BA-D1CF-48C8-B75A-7F7E39B76ED4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5818,7 +5731,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31C1437-ADB4-49C0-9958-C67A3D28CA90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B7EEE6-81C2-4A73-BF01-CAB75A8B016B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5851,7 +5764,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63E3DB3-55CD-4C2D-9572-428905EF9B0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E6EAB8-8B4B-48B0-AA3C-BA688033EF07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,7 +5797,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7025AFFB-7D4E-4CC8-AE2A-573DF5118590}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C00CFE-4D04-46A0-A8A3-0A50DA016398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5917,7 +5830,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC8C166-570E-4ECA-BEEF-6057D30986E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03894431-3000-4B13-B57A-DC73ED2B6821}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5950,7 +5863,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD02BC5E-90ED-49D4-A82F-727436FDEB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE5C252-66F6-4CB2-B940-2B44B3BEDA78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6000,7 +5913,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -6017,7 +5930,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -6418,25 +6331,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{21116269-1533-4454-A12B-2DB4B45513C8}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{B182A84D-D276-4711-AEC3-7AE0E1E15402}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{9B996E48-A8E3-4135-9198-77EA87474C0A}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{E31069D7-F273-44F2-9999-6D45C64FAA25}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{42BED922-B938-41CA-8FB7-6647C34B71E8}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{1A36965B-0551-41EB-8607-1817995F4087}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{1768AD99-7144-4993-BB53-1AF019782044}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{7C416EE3-A9A3-4AB6-825C-CDEFFE237134}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{08DE8C19-E887-4007-9DCA-0F444D1A1801}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{5CFB042C-8E2D-4582-B5E5-70992C7264D0}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{A6B1F25A-D66F-47DA-9503-791AB10D3DAD}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{7A4A694F-5FB0-4CD5-A83F-5F1E15E377B9}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{30E87CB4-A421-4787-A921-9D4A50418385}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{251C1C7E-7D1B-42E7-9DF2-4110FAE78D9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D621056-BFBD-4143-8E5D-B7E57815FAC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA12EA6-A2C9-45E4-830C-3D1588E70260}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6491,16 +6404,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6513,7 +6424,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6526,7 +6437,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6539,7 +6450,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6552,7 +6463,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6565,7 +6476,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6578,7 +6489,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6591,7 +6502,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -6604,39 +6515,28 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="C11" s="10">
         <v>0.05</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D11" s="10">
         <v>0.04</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E11" s="10">
         <v>0.01</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F11" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G11" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-      <sortCondition descending="1" ref="G1:G12"/>
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+      <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6647,12 +6547,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FC7652-46D6-4BDB-9934-892C32322BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB515DC-8E0E-4F56-B0AC-434F415FEDB8}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6707,16 +6607,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6729,7 +6627,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6742,7 +6640,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6755,7 +6653,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6768,7 +6666,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6781,7 +6679,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6794,7 +6692,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6807,7 +6705,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -6820,39 +6718,28 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="C11" s="10">
         <v>0.05</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D11" s="10">
         <v>0.04</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E11" s="10">
         <v>0.01</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F11" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G11" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-      <sortCondition descending="1" ref="G1:G12"/>
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+      <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6863,12 +6750,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901AD3D1-22A9-4E3B-AAA7-C3BDEDD6A198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231E3366-F74F-4C47-A6EE-0AF453A1CB23}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6923,16 +6810,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -6945,7 +6830,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6958,7 +6843,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -6971,7 +6856,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -6984,7 +6869,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -6997,7 +6882,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -7010,7 +6895,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -7023,7 +6908,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -7036,39 +6921,28 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="C11" s="11">
         <v>0.05</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D11" s="11">
         <v>0.04</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E11" s="11">
         <v>0.01</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F11" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G11" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-      <sortCondition descending="1" ref="G1:G12"/>
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+      <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7079,12 +6953,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8FE0F1-7D2A-495D-9E1E-743AFB1E51A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B0A1D9-A6D6-42CE-A6F8-4E3FDE2A91FF}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7139,16 +7013,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7161,7 +7033,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7174,7 +7046,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7187,7 +7059,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7200,7 +7072,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7213,7 +7085,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7226,7 +7098,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7239,7 +7111,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7252,39 +7124,28 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="C11" s="12">
         <v>0.05</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D11" s="12">
         <v>0.04</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E11" s="12">
         <v>0.01</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F11" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G11" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-      <sortCondition descending="1" ref="G1:G12"/>
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+      <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7295,12 +7156,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A5AE3D-77A4-464A-9F84-F21D122CAF04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13014F3F-0EA3-4EAF-9189-E2372496D067}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7355,16 +7216,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7377,7 +7236,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7390,7 +7249,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7403,7 +7262,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7416,7 +7275,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7429,7 +7288,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7442,7 +7301,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7455,7 +7314,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7468,39 +7327,28 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="C11" s="12">
         <v>0.05</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D11" s="12">
         <v>0.04</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E11" s="12">
         <v>0.01</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F11" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G11" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-      <sortCondition descending="1" ref="G1:G12"/>
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+      <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7511,12 +7359,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B1B22E-B3A0-4345-8207-332E3B48BF3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCC311-C650-4A5E-98EE-AC66C88471C9}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7557,7 +7405,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -7571,16 +7419,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7593,7 +7439,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7606,7 +7452,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7619,7 +7465,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7632,7 +7478,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7645,7 +7491,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7658,7 +7504,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7671,7 +7517,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7684,39 +7530,28 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="C11" s="12">
         <v>0.05</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D11" s="12">
         <v>0.04</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E11" s="12">
         <v>0.01</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F11" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G11" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-      <sortCondition descending="1" ref="G1:G12"/>
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+      <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7727,12 +7562,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BAEEA4-0034-4B30-87BF-AC3DF9E3E328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C583F2-9B22-435C-A681-101AAED6A23E}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7773,7 +7608,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -7787,16 +7622,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7809,7 +7642,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7822,7 +7655,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7835,7 +7668,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7848,7 +7681,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7861,7 +7694,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7874,7 +7707,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7887,7 +7720,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7900,39 +7733,28 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="C11" s="12">
         <v>0.05</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D11" s="12">
         <v>0.04</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E11" s="12">
         <v>0.01</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F11" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G11" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-      <sortCondition descending="1" ref="G1:G12"/>
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+      <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/傳播學院.xlsx
+++ b/test/1. 各院彙整資料/傳播學院.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FBA2F-671D-4B29-A31D-6CF99A5B83F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA07AF-E599-469B-9BF2-CF15CE3A8DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{7724BB71-FDD3-4610-87B4-A17FEA766B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{7724BB71-FDD3-4610-87B4-A17FEA766B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$11</definedName>
@@ -53,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="37">
-  <si>
-    <t>傳播學院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="46">
   <si>
     <t>新聞系</t>
   </si>
@@ -83,27 +77,6 @@
   </si>
   <si>
     <t>傳播碩</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -174,6 +147,57 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳播學院</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -490,36 +514,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -529,19 +526,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F830-49F6-90F4-4FE5F133EC39}"/>
+              <c16:uniqueId val="{00000000-1554-4845-8FEE-16B4DDEFC525}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -578,36 +572,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -617,19 +584,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F830-49F6-90F4-4FE5F133EC39}"/>
+              <c16:uniqueId val="{00000001-1554-4845-8FEE-16B4DDEFC525}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -666,36 +630,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -705,19 +642,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F830-49F6-90F4-4FE5F133EC39}"/>
+              <c16:uniqueId val="{00000002-1554-4845-8FEE-16B4DDEFC525}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -781,7 +715,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -828,7 +766,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F830-49F6-90F4-4FE5F133EC39}"/>
+                  <c16:uniqueId val="{00000003-1554-4845-8FEE-16B4DDEFC525}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -837,7 +775,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -902,36 +844,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -941,12 +856,9 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,7 +866,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F830-49F6-90F4-4FE5F133EC39}"/>
+              <c16:uniqueId val="{00000004-1554-4845-8FEE-16B4DDEFC525}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1237,36 +1149,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1276,19 +1161,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC18-4660-9286-61AC8616BCF9}"/>
+              <c16:uniqueId val="{00000000-57BC-470D-99B5-E5131312AE0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1325,36 +1207,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1364,19 +1219,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC18-4660-9286-61AC8616BCF9}"/>
+              <c16:uniqueId val="{00000001-57BC-470D-99B5-E5131312AE0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1413,36 +1265,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1452,19 +1277,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BC18-4660-9286-61AC8616BCF9}"/>
+              <c16:uniqueId val="{00000002-57BC-470D-99B5-E5131312AE0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1528,7 +1350,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1575,7 +1401,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BC18-4660-9286-61AC8616BCF9}"/>
+                  <c16:uniqueId val="{00000003-57BC-470D-99B5-E5131312AE0A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1584,7 +1410,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1649,36 +1479,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1688,12 +1491,9 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,7 +1501,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BC18-4660-9286-61AC8616BCF9}"/>
+              <c16:uniqueId val="{00000004-57BC-470D-99B5-E5131312AE0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1984,36 +1784,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2023,19 +1796,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75A7-4DF1-9B6F-2A8B75A0A4C3}"/>
+              <c16:uniqueId val="{00000000-A1A0-4C71-BA67-D3A846BC4D36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2072,36 +1842,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2111,19 +1854,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75A7-4DF1-9B6F-2A8B75A0A4C3}"/>
+              <c16:uniqueId val="{00000001-A1A0-4C71-BA67-D3A846BC4D36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2160,36 +1900,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2199,19 +1912,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75A7-4DF1-9B6F-2A8B75A0A4C3}"/>
+              <c16:uniqueId val="{00000002-A1A0-4C71-BA67-D3A846BC4D36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2275,7 +1985,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2322,7 +2036,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-75A7-4DF1-9B6F-2A8B75A0A4C3}"/>
+                  <c16:uniqueId val="{00000003-A1A0-4C71-BA67-D3A846BC4D36}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2331,7 +2045,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2396,36 +2114,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2435,12 +2126,9 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,7 +2136,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-75A7-4DF1-9B6F-2A8B75A0A4C3}"/>
+              <c16:uniqueId val="{00000004-A1A0-4C71-BA67-D3A846BC4D36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2731,36 +2419,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2770,19 +2431,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2164-4CD4-9B34-FDCDCFEB907C}"/>
+              <c16:uniqueId val="{00000000-3BB7-42F0-A8DF-76F7EEF5EFA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2819,36 +2477,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2858,19 +2489,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2164-4CD4-9B34-FDCDCFEB907C}"/>
+              <c16:uniqueId val="{00000001-3BB7-42F0-A8DF-76F7EEF5EFA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2907,36 +2535,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2946,19 +2547,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2164-4CD4-9B34-FDCDCFEB907C}"/>
+              <c16:uniqueId val="{00000002-3BB7-42F0-A8DF-76F7EEF5EFA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3022,7 +2620,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3069,7 +2671,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2164-4CD4-9B34-FDCDCFEB907C}"/>
+                  <c16:uniqueId val="{00000003-3BB7-42F0-A8DF-76F7EEF5EFA1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3078,7 +2680,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3143,36 +2749,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3182,12 +2761,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3195,7 +2771,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2164-4CD4-9B34-FDCDCFEB907C}"/>
+              <c16:uniqueId val="{00000004-3BB7-42F0-A8DF-76F7EEF5EFA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3478,36 +3054,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3517,19 +3066,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F24A-4CEA-A6B6-EDAAFFEABB71}"/>
+              <c16:uniqueId val="{00000000-F38C-4F6A-9518-0FF2E66AFFB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3566,36 +3112,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3605,19 +3124,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F24A-4CEA-A6B6-EDAAFFEABB71}"/>
+              <c16:uniqueId val="{00000001-F38C-4F6A-9518-0FF2E66AFFB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3654,36 +3170,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3693,19 +3182,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F24A-4CEA-A6B6-EDAAFFEABB71}"/>
+              <c16:uniqueId val="{00000002-F38C-4F6A-9518-0FF2E66AFFB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3769,7 +3255,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3816,7 +3306,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F24A-4CEA-A6B6-EDAAFFEABB71}"/>
+                  <c16:uniqueId val="{00000003-F38C-4F6A-9518-0FF2E66AFFB1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3825,7 +3315,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3890,36 +3384,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3929,12 +3396,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3942,7 +3406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F24A-4CEA-A6B6-EDAAFFEABB71}"/>
+              <c16:uniqueId val="{00000004-F38C-4F6A-9518-0FF2E66AFFB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4225,36 +3689,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4264,19 +3701,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C703-4199-8789-BDAA4D8D2F19}"/>
+              <c16:uniqueId val="{00000000-2B1B-4F6D-90D0-DFA4F4C78DD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4313,36 +3747,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4352,19 +3759,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C703-4199-8789-BDAA4D8D2F19}"/>
+              <c16:uniqueId val="{00000001-2B1B-4F6D-90D0-DFA4F4C78DD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4401,36 +3805,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4440,19 +3817,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C703-4199-8789-BDAA4D8D2F19}"/>
+              <c16:uniqueId val="{00000002-2B1B-4F6D-90D0-DFA4F4C78DD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4516,7 +3890,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4563,7 +3941,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C703-4199-8789-BDAA4D8D2F19}"/>
+                  <c16:uniqueId val="{00000003-2B1B-4F6D-90D0-DFA4F4C78DD2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4572,7 +3950,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4637,36 +4019,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4676,12 +4031,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4689,7 +4041,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C703-4199-8789-BDAA4D8D2F19}"/>
+              <c16:uniqueId val="{00000004-2B1B-4F6D-90D0-DFA4F4C78DD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4972,36 +4324,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5011,19 +4336,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7D1-408B-A631-ECA9E881ECE5}"/>
+              <c16:uniqueId val="{00000000-F6F9-4F54-9BD8-973401893327}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5060,36 +4382,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5099,19 +4394,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F7D1-408B-A631-ECA9E881ECE5}"/>
+              <c16:uniqueId val="{00000001-F6F9-4F54-9BD8-973401893327}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5148,36 +4440,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5187,19 +4452,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F7D1-408B-A631-ECA9E881ECE5}"/>
+              <c16:uniqueId val="{00000002-F6F9-4F54-9BD8-973401893327}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5263,7 +4525,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5310,7 +4576,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F7D1-408B-A631-ECA9E881ECE5}"/>
+                  <c16:uniqueId val="{00000003-F6F9-4F54-9BD8-973401893327}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5319,7 +4585,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5384,36 +4654,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>新聞系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>廣告系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>廣電系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>不分系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>國傳碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>傳碩在</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>數位碩</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>傳播博</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>傳播碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5423,12 +4666,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5436,7 +4676,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F7D1-408B-A631-ECA9E881ECE5}"/>
+              <c16:uniqueId val="{00000004-F6F9-4F54-9BD8-973401893327}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5665,7 +4905,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F390ED48-4125-401A-B95F-05ECF9913441}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB7821E-AF8E-4EE2-AAB1-E5A75AFD6B99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5698,7 +4938,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE7E5BA-D1CF-48C8-B75A-7F7E39B76ED4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EB0A19-ADA9-429A-A888-36BDC2D72CB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5731,7 +4971,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B7EEE6-81C2-4A73-BF01-CAB75A8B016B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF6E212-8372-43D5-9DEA-051CA5FDA080}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5764,7 +5004,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E6EAB8-8B4B-48B0-AA3C-BA688033EF07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DDD781-63E5-469A-A489-93310834282F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5797,7 +5037,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C00CFE-4D04-46A0-A8A3-0A50DA016398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93342775-9A26-4C63-B855-13B813C6D27C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5830,7 +5070,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03894431-3000-4B13-B57A-DC73ED2B6821}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F23055-6FC4-4071-9B4E-500B93B80D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5863,7 +5103,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE5C252-66F6-4CB2-B940-2B44B3BEDA78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502E7675-6998-4ADB-9621-E9B55558A9AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,72 +5124,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6247,109 +5421,183 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8690AC9D-9CE7-4F61-B014-BCB588429041}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEFB327-CE83-4FBE-9F29-577A2DE27992}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="7.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{7C416EE3-A9A3-4AB6-825C-CDEFFE237134}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{08DE8C19-E887-4007-9DCA-0F444D1A1801}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{5CFB042C-8E2D-4582-B5E5-70992C7264D0}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{A6B1F25A-D66F-47DA-9503-791AB10D3DAD}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{7A4A694F-5FB0-4CD5-A83F-5F1E15E377B9}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{30E87CB4-A421-4787-A921-9D4A50418385}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{251C1C7E-7D1B-42E7-9DF2-4110FAE78D9B}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{EFF9ADC6-AB50-4F15-A782-C8CCC96825C9}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{6480879F-3264-4CA7-82C0-E99B34809D4D}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{1B20ECE1-EAA6-4ECD-9F8D-48B11AEB260F}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{AD3DE4CB-9952-463D-9AD7-61C6D1FC5468}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{37F7DA56-9054-4BA8-B178-A0AEA36752D1}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{E855A59B-46CB-40C5-9E71-9E8E37392E08}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{D8FB2D57-F833-4624-8908-1F44615B4A0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA12EA6-A2C9-45E4-830C-3D1588E70260}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E194F005-2ADE-4D81-B3AD-0335300EF5FF}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6362,183 +5610,276 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>999</v>
+      <c r="C11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
       <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6547,12 +5888,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB515DC-8E0E-4F56-B0AC-434F415FEDB8}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095C88F0-B2F3-492B-BA22-31FD129AA9E4}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6565,183 +5906,276 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>999</v>
+      <c r="C11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
       <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6750,12 +6184,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231E3366-F74F-4C47-A6EE-0AF453A1CB23}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4106DB26-BFE8-44F6-9BB1-D0017E8462FF}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6768,183 +6202,276 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>999</v>
+      <c r="C11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
       <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6953,12 +6480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B0A1D9-A6D6-42CE-A6F8-4E3FDE2A91FF}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1875FB10-0E85-4098-86FD-4C30CCF2A74F}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6971,183 +6498,276 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>999</v>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
       <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7156,12 +6776,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13014F3F-0EA3-4EAF-9189-E2372496D067}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE73D2D-C9BF-45A7-BFB0-DACE1C8DD95C}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7174,183 +6794,276 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>999</v>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
       <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7359,12 +7072,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCC311-C650-4A5E-98EE-AC66C88471C9}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288EB0AE-8548-45CD-B282-821FFC825214}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7377,183 +7090,276 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>999</v>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
       <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7562,12 +7368,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C583F2-9B22-435C-A681-101AAED6A23E}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC28FDAB-F088-482D-8728-99254C7237BA}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7580,183 +7386,276 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>999</v>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
       <sortCondition descending="1" ref="G1:G11"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/傳播學院.xlsx
+++ b/test/1. 各院彙整資料/傳播學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA07AF-E599-469B-9BF2-CF15CE3A8DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3555838-E6F1-4A70-8AC9-52A916838E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{7724BB71-FDD3-4610-87B4-A17FEA766B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{2F48443A-10B0-4271-8EB6-1234EEF64542}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$11</definedName>
@@ -50,106 +50,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="55">
+  <si>
+    <t>400 傳播學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>傳播學院</t>
+  </si>
+  <si>
+    <t>401 新聞學系</t>
+  </si>
   <si>
     <t>新聞系</t>
+  </si>
+  <si>
+    <t>402 廣告學系</t>
   </si>
   <si>
     <t>廣告系</t>
   </si>
   <si>
+    <t>403 廣播電視學系</t>
+  </si>
+  <si>
     <t>廣電系</t>
+  </si>
+  <si>
+    <t>405 傳播學院大一大二不分系</t>
   </si>
   <si>
     <t>不分系</t>
   </si>
   <si>
+    <t>461 國際傳播英語碩士學位學程</t>
+  </si>
+  <si>
     <t>國傳碩</t>
+  </si>
+  <si>
+    <t>941 傳播學院碩士在職專班</t>
   </si>
   <si>
     <t>傳碩在</t>
   </si>
   <si>
+    <t>462 數位內容碩士學位學程</t>
+  </si>
+  <si>
     <t>數位碩</t>
   </si>
   <si>
-    <t>傳播博</t>
+    <t>463 傳播學院博士班</t>
   </si>
   <si>
-    <t>傳播碩</t>
-  </si>
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>400 傳播學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>401 新聞學系</t>
-  </si>
-  <si>
-    <t>402 廣告學系</t>
-  </si>
-  <si>
-    <t>403 廣播電視學系</t>
-  </si>
-  <si>
-    <t>405 傳播學院大一大二不分系</t>
-  </si>
-  <si>
-    <t>461 國際傳播英語碩士學位學程</t>
-  </si>
-  <si>
-    <t>941 傳播學院碩士在職專班</t>
-  </si>
-  <si>
-    <t>462 數位內容碩士學位學程</t>
-  </si>
-  <si>
-    <t>463 傳播學院博士班</t>
+    <t>傳播博</t>
   </si>
   <si>
     <t>464 傳播學院傳播碩士學位學程</t>
   </si>
   <si>
     <t>傳播碩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳播學院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -194,21 +154,98 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳播碩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為47.62%，高於（或等於）院三年均值者計有1個系，為傳播博47.62%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為42,888，高於院三年均值者計有1個系，為新聞系53,773。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為3.52，低於院三年均值者計有3個系，為數位碩2.56、國傳碩3.02、傳播碩3.48。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無資料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為20.3%，低於（或等於）院三年均值者計有1個系，為不分系20.3%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為15.4，無高於（或等於）院三年均值者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -391,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,15 +463,27 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{9D70FD53-6D8B-43D9-BF7A-5270A94F42DD}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{2302A184-8BCF-4CE6-89A7-0B1FF0E0AE33}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{047C11B9-FA4B-4787-95F3-78DD58086CB9}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{F5D83D75-C4D0-4BE1-B4D3-831914FAEF97}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{4C8B896C-D963-4027-968B-3E221A51511E}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{486C54AA-4F3B-486A-AF97-7EBD6531EB88}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,8 +563,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>不分系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -525,17 +577,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.20930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20930000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1554-4845-8FEE-16B4DDEFC525}"/>
+              <c16:uniqueId val="{00000000-F6FF-42D0-A8DC-6DDAB932C94F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -572,8 +627,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>不分系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -583,17 +641,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.23230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23230000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1554-4845-8FEE-16B4DDEFC525}"/>
+              <c16:uniqueId val="{00000001-F6FF-42D0-A8DC-6DDAB932C94F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -630,8 +691,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>不分系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -641,17 +705,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.17560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17560000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1554-4845-8FEE-16B4DDEFC525}"/>
+              <c16:uniqueId val="{00000002-F6FF-42D0-A8DC-6DDAB932C94F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -766,7 +833,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1554-4845-8FEE-16B4DDEFC525}"/>
+                  <c16:uniqueId val="{00000003-F6FF-42D0-A8DC-6DDAB932C94F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -844,8 +911,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>不分系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -855,10 +925,13 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,7 +939,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1554-4845-8FEE-16B4DDEFC525}"/>
+              <c16:uniqueId val="{00000004-F6FF-42D0-A8DC-6DDAB932C94F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -966,7 +1039,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1149,8 +1222,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1160,17 +1236,20 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-57BC-470D-99B5-E5131312AE0A}"/>
+              <c16:uniqueId val="{00000000-1DC4-48CE-BA2C-A64FCA7680BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1207,8 +1286,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1218,17 +1300,20 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-57BC-470D-99B5-E5131312AE0A}"/>
+              <c16:uniqueId val="{00000001-1DC4-48CE-BA2C-A64FCA7680BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1265,8 +1350,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1276,17 +1364,20 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66669999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-57BC-470D-99B5-E5131312AE0A}"/>
+              <c16:uniqueId val="{00000002-1DC4-48CE-BA2C-A64FCA7680BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1401,7 +1492,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-57BC-470D-99B5-E5131312AE0A}"/>
+                  <c16:uniqueId val="{00000003-1DC4-48CE-BA2C-A64FCA7680BE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1479,8 +1570,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1490,10 +1584,13 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.47620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47620000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,7 +1598,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-57BC-470D-99B5-E5131312AE0A}"/>
+              <c16:uniqueId val="{00000004-1DC4-48CE-BA2C-A64FCA7680BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1601,7 +1698,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1784,8 +1881,35 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>新聞系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>廣電系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>廣告系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>不分系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>傳碩在</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1795,17 +1919,44 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>47782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45437</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39264.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A1A0-4C71-BA67-D3A846BC4D36}"/>
+              <c16:uniqueId val="{00000000-D55C-47F9-81EE-72044BE2F548}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1842,8 +1993,35 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>新聞系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>廣電系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>廣告系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>不分系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>傳碩在</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1853,17 +2031,44 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>64744.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41276.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41720.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39759.24</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45562.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A1A0-4C71-BA67-D3A846BC4D36}"/>
+              <c16:uniqueId val="{00000001-D55C-47F9-81EE-72044BE2F548}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1900,8 +2105,35 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>新聞系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>廣電系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>廣告系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>不分系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>傳碩在</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1911,17 +2143,44 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>50456.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46152.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43548.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32597.69</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43904.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A1A0-4C71-BA67-D3A846BC4D36}"/>
+              <c16:uniqueId val="{00000002-D55C-47F9-81EE-72044BE2F548}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2036,7 +2295,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A1A0-4C71-BA67-D3A846BC4D36}"/>
+                  <c16:uniqueId val="{00000003-D55C-47F9-81EE-72044BE2F548}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2114,8 +2373,35 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>新聞系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>廣電系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>廣告系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>不分系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>傳碩在</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2125,10 +2411,37 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>53772.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41252.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40073.550000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38931.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42887.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2136,7 +2449,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A1A0-4C71-BA67-D3A846BC4D36}"/>
+              <c16:uniqueId val="{00000004-D55C-47F9-81EE-72044BE2F548}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2236,7 +2549,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2419,8 +2732,20 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>傳碩在</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2430,17 +2755,29 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BB7-42F0-A8DF-76F7EEF5EFA1}"/>
+              <c16:uniqueId val="{00000000-D246-46AE-B8CE-9030D8E64E8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2477,8 +2814,20 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>傳碩在</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2488,17 +2837,29 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3BB7-42F0-A8DF-76F7EEF5EFA1}"/>
+              <c16:uniqueId val="{00000001-D246-46AE-B8CE-9030D8E64E8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2535,8 +2896,20 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>傳碩在</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2546,17 +2919,29 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3BB7-42F0-A8DF-76F7EEF5EFA1}"/>
+              <c16:uniqueId val="{00000002-D246-46AE-B8CE-9030D8E64E8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2671,7 +3056,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3BB7-42F0-A8DF-76F7EEF5EFA1}"/>
+                  <c16:uniqueId val="{00000003-D246-46AE-B8CE-9030D8E64E8B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2749,8 +3134,20 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>傳碩在</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2760,10 +3157,22 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,7 +3180,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3BB7-42F0-A8DF-76F7EEF5EFA1}"/>
+              <c16:uniqueId val="{00000004-D246-46AE-B8CE-9030D8E64E8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2871,7 +3280,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3054,8 +3463,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3065,17 +3486,29 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F38C-4F6A-9518-0FF2E66AFFB1}"/>
+              <c16:uniqueId val="{00000000-44EF-45DA-869E-8EE092B9D355}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3112,8 +3545,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3123,17 +3568,29 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F38C-4F6A-9518-0FF2E66AFFB1}"/>
+              <c16:uniqueId val="{00000001-44EF-45DA-869E-8EE092B9D355}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3170,8 +3627,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3181,17 +3650,29 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>11.74</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>15.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F38C-4F6A-9518-0FF2E66AFFB1}"/>
+              <c16:uniqueId val="{00000002-44EF-45DA-869E-8EE092B9D355}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3306,7 +3787,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F38C-4F6A-9518-0FF2E66AFFB1}"/>
+                  <c16:uniqueId val="{00000003-44EF-45DA-869E-8EE092B9D355}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3384,8 +3865,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>傳播碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>數位碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國傳碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>傳播博</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3395,10 +3888,22 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,7 +3911,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F38C-4F6A-9518-0FF2E66AFFB1}"/>
+              <c16:uniqueId val="{00000004-44EF-45DA-869E-8EE092B9D355}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3506,7 +4011,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3700,17 +4205,17 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B1B-4F6D-90D0-DFA4F4C78DD2}"/>
+              <c16:uniqueId val="{00000000-9BBB-41E0-AC8F-6EB417F87FAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3758,17 +4263,17 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B1B-4F6D-90D0-DFA4F4C78DD2}"/>
+              <c16:uniqueId val="{00000001-9BBB-41E0-AC8F-6EB417F87FAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3816,17 +4321,17 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2B1B-4F6D-90D0-DFA4F4C78DD2}"/>
+              <c16:uniqueId val="{00000002-9BBB-41E0-AC8F-6EB417F87FAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3941,7 +4446,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2B1B-4F6D-90D0-DFA4F4C78DD2}"/>
+                  <c16:uniqueId val="{00000003-9BBB-41E0-AC8F-6EB417F87FAF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4030,10 +4535,10 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4041,7 +4546,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2B1B-4F6D-90D0-DFA4F4C78DD2}"/>
+              <c16:uniqueId val="{00000004-9BBB-41E0-AC8F-6EB417F87FAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4141,7 +4646,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4335,7 +4840,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4345,7 +4850,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F6F9-4F54-9BD8-973401893327}"/>
+              <c16:uniqueId val="{00000000-FD1B-4DF4-92D4-1FEE6A315DE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4393,7 +4898,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4403,7 +4908,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F6F9-4F54-9BD8-973401893327}"/>
+              <c16:uniqueId val="{00000001-FD1B-4DF4-92D4-1FEE6A315DE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4451,7 +4956,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4461,7 +4966,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F6F9-4F54-9BD8-973401893327}"/>
+              <c16:uniqueId val="{00000002-FD1B-4DF4-92D4-1FEE6A315DE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4576,7 +5081,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F6F9-4F54-9BD8-973401893327}"/>
+                  <c16:uniqueId val="{00000003-FD1B-4DF4-92D4-1FEE6A315DE2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4665,7 +5170,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4676,7 +5181,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F6F9-4F54-9BD8-973401893327}"/>
+              <c16:uniqueId val="{00000004-FD1B-4DF4-92D4-1FEE6A315DE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4776,7 +5281,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4905,7 +5410,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB7821E-AF8E-4EE2-AAB1-E5A75AFD6B99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD3EE29-FE57-408F-8157-E6D9A99C235F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4938,7 +5443,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EB0A19-ADA9-429A-A888-36BDC2D72CB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313A3275-4300-4C04-8CF8-9F9A36A6E0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4971,7 +5476,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF6E212-8372-43D5-9DEA-051CA5FDA080}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1558A2D2-3783-4804-B585-BC169F689EE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5004,7 +5509,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DDD781-63E5-469A-A489-93310834282F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C61866B-C1C9-4231-96E8-9422BF463ADF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5037,7 +5542,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93342775-9A26-4C63-B855-13B813C6D27C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F420FAA0-D55D-47F5-BAC0-E248AE3AC71A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5070,7 +5575,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F23055-6FC4-4071-9B4E-500B93B80D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D586F25C-98CF-476D-9BD7-452922345740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5103,7 +5608,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502E7675-6998-4ADB-9621-E9B55558A9AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9470972D-7CD3-463C-B931-09FC8DEB27E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5935,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8690AC9D-9CE7-4F61-B014-BCB588429041}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{75A36F5A-B566-4DD7-9C46-E377485D642C}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5442,9 +5947,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEFB327-CE83-4FBE-9F29-577A2DE27992}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33C4A53-36E3-4C0B-AF47-A5D505EAE358}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5458,426 +5963,721 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12">
+        <v>5</v>
+      </c>
+      <c r="K5" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="I7" s="12">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12">
+        <v>3</v>
+      </c>
+      <c r="K7" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3.38</v>
+      </c>
+      <c r="H10" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2.75</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="K10" s="12">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3.38</v>
+      </c>
+      <c r="H12" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2.75</v>
+      </c>
+      <c r="J12" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="K12" s="12">
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{EFF9ADC6-AB50-4F15-A782-C8CCC96825C9}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{6480879F-3264-4CA7-82C0-E99B34809D4D}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{1B20ECE1-EAA6-4ECD-9F8D-48B11AEB260F}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{AD3DE4CB-9952-463D-9AD7-61C6D1FC5468}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{37F7DA56-9054-4BA8-B178-A0AEA36752D1}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{E855A59B-46CB-40C5-9E71-9E8E37392E08}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{D8FB2D57-F833-4624-8908-1F44615B4A0F}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{B9AF61CE-82D8-4381-AD4E-C796A90FBAE4}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{6A3CC4BC-D2EB-4E98-951D-F575FA42F728}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{F2A05493-B27D-4F1E-B764-AA84E46A7D29}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{6E0C6988-5947-4C8B-B580-95B8D8B1B410}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{83A5CC13-1E14-4D1E-B506-A5F03909F49D}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{A8285FA1-BB51-43A6-9661-C5D920F89214}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{58B16260-07ED-4125-B8FF-B441EBB2AB43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E194F005-2ADE-4D81-B3AD-0335300EF5FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFE835D-5FA1-42F6-BD7E-C5890EC438C1}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.20930000000000001</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+      <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5888,292 +6688,293 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095C88F0-B2F3-492B-BA22-31FD129AA9E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB05E8DE-675A-4806-BB56-D1E5BCBFEC77}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="4" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>44</v>
+      <c r="C2" s="13">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.2</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+      <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6184,292 +6985,292 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4106DB26-BFE8-44F6-9BB1-D0017E8462FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2EB8F-FE70-4B3E-B7AF-DB605DE823BC}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>53772.83</v>
+      </c>
+      <c r="D2" s="11">
+        <v>50456.26</v>
+      </c>
+      <c r="E2" s="11">
+        <v>64744.5</v>
+      </c>
+      <c r="F2" s="11">
+        <v>47782</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11">
+        <v>41252.32</v>
+      </c>
+      <c r="D3" s="11">
+        <v>46152.42</v>
+      </c>
+      <c r="E3" s="11">
+        <v>41276.49</v>
+      </c>
+      <c r="F3" s="11">
+        <v>35494</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>40073.550000000003</v>
+      </c>
+      <c r="D4" s="11">
+        <v>43548.23</v>
+      </c>
+      <c r="E4" s="11">
+        <v>41720.04</v>
+      </c>
+      <c r="F4" s="11">
+        <v>34551</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>38931.15</v>
+      </c>
+      <c r="D5" s="11">
+        <v>32597.69</v>
+      </c>
+      <c r="E5" s="11">
+        <v>39759.24</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45437</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11">
+        <v>42887.73</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43904.04</v>
+      </c>
+      <c r="E11" s="11">
+        <v>45562.89</v>
+      </c>
+      <c r="F11" s="11">
+        <v>39264.29</v>
+      </c>
+      <c r="G11" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+      <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6480,292 +7281,293 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1875FB10-0E85-4098-86FD-4C30CCF2A74F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19F5E22-D916-4BCD-97D0-02E18B1014A9}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="5" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2.56</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2.5</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3.02</v>
+      </c>
+      <c r="D3" s="16">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2.93</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3.48</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3.32</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3.44</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D5" s="15">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F5" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="15">
+        <v>3.52</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3.43</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3.64</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>44</v>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+      <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6776,292 +7578,292 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE73D2D-C9BF-45A7-BFB0-DACE1C8DD95C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0023B561-3B19-406F-941B-6AA8C8489125}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="15">
+        <v>14.54</v>
+      </c>
+      <c r="D2" s="15">
+        <v>15.48</v>
+      </c>
+      <c r="E2" s="15">
+        <v>13.44</v>
+      </c>
+      <c r="F2" s="15">
+        <v>14.95</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15">
+        <v>12.56</v>
+      </c>
+      <c r="D3" s="16">
+        <v>14</v>
+      </c>
+      <c r="E3" s="15">
+        <v>13.67</v>
+      </c>
+      <c r="F3" s="15">
+        <v>10.27</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15">
+        <v>12.17</v>
+      </c>
+      <c r="D4" s="15">
+        <v>11.74</v>
+      </c>
+      <c r="E4" s="15">
+        <v>11.78</v>
+      </c>
+      <c r="F4" s="15">
+        <v>13.06</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C5" s="15">
+        <v>3.67</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4.42</v>
+      </c>
+      <c r="F5" s="15">
+        <v>4.25</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="15">
+        <v>15.4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>15.85</v>
+      </c>
+      <c r="E6" s="15">
+        <v>15.12</v>
+      </c>
+      <c r="F6" s="15">
+        <v>15.29</v>
+      </c>
+      <c r="G6" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>44</v>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+      <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7072,68 +7874,68 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288EB0AE-8548-45CD-B282-821FFC825214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42746D9E-8FA0-4D8B-A85D-86186C1EB401}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="16">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16">
+        <v>3</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -7141,220 +7943,220 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+      <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
@@ -7368,68 +8170,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC28FDAB-F088-482D-8728-99254C7237BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D7E4C7-E6B3-4004-858B-736003CB1B69}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -7437,220 +8239,220 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+      <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">

--- a/test/1. 各院彙整資料/傳播學院.xlsx
+++ b/test/1. 各院彙整資料/傳播學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3555838-E6F1-4A70-8AC9-52A916838E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF2F9D-699A-4B09-81FF-DD3B1ECDACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{2F48443A-10B0-4271-8EB6-1234EEF64542}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{2F48443A-10B0-4271-8EB6-1234EEF64542}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$11</definedName>
@@ -200,38 +200,31 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為20.3%，低於（或等於）院三年均值者計有1個系，為不分系20.3%。</t>
   </si>
   <si>
     <t>院三年均值為47.62%，高於（或等於）院三年均值者計有1個系，為傳播博47.62%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為42,888，高於院三年均值者計有1個系，為新聞系53,773。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為3.52，低於院三年均值者計有3個系，為數位碩2.56、國傳碩3.02、傳播碩3.48。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為15.4，無高於（或等於）院三年均值者。</t>
   </si>
   <si>
     <t>無資料。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為20.3%，低於（或等於）院三年均值者計有1個系，為不分系20.3%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為15.4，無高於（或等於）院三年均值者。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -240,10 +233,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="179" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -463,9 +456,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,6 +466,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,7 +583,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F6FF-42D0-A8DC-6DDAB932C94F}"/>
+              <c16:uniqueId val="{00000000-3587-458C-A2A3-E51D5F6C5007}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -654,7 +647,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F6FF-42D0-A8DC-6DDAB932C94F}"/>
+              <c16:uniqueId val="{00000001-3587-458C-A2A3-E51D5F6C5007}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -718,7 +711,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F6FF-42D0-A8DC-6DDAB932C94F}"/>
+              <c16:uniqueId val="{00000002-3587-458C-A2A3-E51D5F6C5007}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -776,7 +769,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -831,9 +824,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F6FF-42D0-A8DC-6DDAB932C94F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -939,7 +929,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F6FF-42D0-A8DC-6DDAB932C94F}"/>
+              <c16:uniqueId val="{00000004-3587-458C-A2A3-E51D5F6C5007}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1249,7 +1239,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1DC4-48CE-BA2C-A64FCA7680BE}"/>
+              <c16:uniqueId val="{00000000-73C1-4980-87C6-2028049BB47B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1313,7 +1303,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1DC4-48CE-BA2C-A64FCA7680BE}"/>
+              <c16:uniqueId val="{00000001-73C1-4980-87C6-2028049BB47B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1377,7 +1367,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1DC4-48CE-BA2C-A64FCA7680BE}"/>
+              <c16:uniqueId val="{00000002-73C1-4980-87C6-2028049BB47B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1435,7 +1425,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1490,9 +1480,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1DC4-48CE-BA2C-A64FCA7680BE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1598,7 +1585,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1DC4-48CE-BA2C-A64FCA7680BE}"/>
+              <c16:uniqueId val="{00000004-73C1-4980-87C6-2028049BB47B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1956,7 +1943,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D55C-47F9-81EE-72044BE2F548}"/>
+              <c16:uniqueId val="{00000000-C8DF-4AD7-B654-209896CC8E39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2068,7 +2055,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D55C-47F9-81EE-72044BE2F548}"/>
+              <c16:uniqueId val="{00000001-C8DF-4AD7-B654-209896CC8E39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2180,7 +2167,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D55C-47F9-81EE-72044BE2F548}"/>
+              <c16:uniqueId val="{00000002-C8DF-4AD7-B654-209896CC8E39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2238,7 +2225,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="9"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2293,9 +2280,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D55C-47F9-81EE-72044BE2F548}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2449,7 +2433,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D55C-47F9-81EE-72044BE2F548}"/>
+              <c16:uniqueId val="{00000004-C8DF-4AD7-B654-209896CC8E39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2777,7 +2761,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D246-46AE-B8CE-9030D8E64E8B}"/>
+              <c16:uniqueId val="{00000000-A6FA-47FE-96E0-DA72F8E437AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2859,7 +2843,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D246-46AE-B8CE-9030D8E64E8B}"/>
+              <c16:uniqueId val="{00000001-A6FA-47FE-96E0-DA72F8E437AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2941,7 +2925,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D246-46AE-B8CE-9030D8E64E8B}"/>
+              <c16:uniqueId val="{00000002-A6FA-47FE-96E0-DA72F8E437AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2999,7 +2983,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="4"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3054,9 +3038,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D246-46AE-B8CE-9030D8E64E8B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3180,7 +3161,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D246-46AE-B8CE-9030D8E64E8B}"/>
+              <c16:uniqueId val="{00000004-A6FA-47FE-96E0-DA72F8E437AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3508,7 +3489,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44EF-45DA-869E-8EE092B9D355}"/>
+              <c16:uniqueId val="{00000000-837D-43F8-B56C-97C6350F07F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3590,7 +3571,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-44EF-45DA-869E-8EE092B9D355}"/>
+              <c16:uniqueId val="{00000001-837D-43F8-B56C-97C6350F07F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3672,7 +3653,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-44EF-45DA-869E-8EE092B9D355}"/>
+              <c16:uniqueId val="{00000002-837D-43F8-B56C-97C6350F07F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3730,7 +3711,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="4"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3785,9 +3766,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-44EF-45DA-869E-8EE092B9D355}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3911,7 +3889,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-44EF-45DA-869E-8EE092B9D355}"/>
+              <c16:uniqueId val="{00000004-837D-43F8-B56C-97C6350F07F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4215,7 +4193,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BBB-41E0-AC8F-6EB417F87FAF}"/>
+              <c16:uniqueId val="{00000000-43E1-4CE9-BCBB-A539FF0F3488}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4273,7 +4251,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9BBB-41E0-AC8F-6EB417F87FAF}"/>
+              <c16:uniqueId val="{00000001-43E1-4CE9-BCBB-A539FF0F3488}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4331,7 +4309,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9BBB-41E0-AC8F-6EB417F87FAF}"/>
+              <c16:uniqueId val="{00000002-43E1-4CE9-BCBB-A539FF0F3488}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4446,7 +4424,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9BBB-41E0-AC8F-6EB417F87FAF}"/>
+                  <c16:uniqueId val="{00000003-43E1-4CE9-BCBB-A539FF0F3488}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4546,7 +4524,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9BBB-41E0-AC8F-6EB417F87FAF}"/>
+              <c16:uniqueId val="{00000004-43E1-4CE9-BCBB-A539FF0F3488}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4850,7 +4828,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FD1B-4DF4-92D4-1FEE6A315DE2}"/>
+              <c16:uniqueId val="{00000000-24C5-4ECC-8E3A-98721E86E0FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4908,7 +4886,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FD1B-4DF4-92D4-1FEE6A315DE2}"/>
+              <c16:uniqueId val="{00000001-24C5-4ECC-8E3A-98721E86E0FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4966,7 +4944,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FD1B-4DF4-92D4-1FEE6A315DE2}"/>
+              <c16:uniqueId val="{00000002-24C5-4ECC-8E3A-98721E86E0FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5081,7 +5059,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-FD1B-4DF4-92D4-1FEE6A315DE2}"/>
+                  <c16:uniqueId val="{00000003-24C5-4ECC-8E3A-98721E86E0FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5181,7 +5159,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FD1B-4DF4-92D4-1FEE6A315DE2}"/>
+              <c16:uniqueId val="{00000004-24C5-4ECC-8E3A-98721E86E0FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5410,7 +5388,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD3EE29-FE57-408F-8157-E6D9A99C235F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D935C44-9ACA-4852-BBBB-08BD24B0538E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5443,7 +5421,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313A3275-4300-4C04-8CF8-9F9A36A6E0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D2EB72-393C-400D-B700-27AE8407812E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5476,7 +5454,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1558A2D2-3783-4804-B585-BC169F689EE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D7D55A-BEAB-476D-92E2-C530DBF705E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5509,7 +5487,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C61866B-C1C9-4231-96E8-9422BF463ADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BC067A-E404-403A-90BB-7849563D7AD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5542,7 +5520,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F420FAA0-D55D-47F5-BAC0-E248AE3AC71A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628DFFE8-3007-4C91-9A8A-A5F6CB67DCAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5575,7 +5553,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D586F25C-98CF-476D-9BD7-452922345740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D521EE2-DB24-44A6-ACB4-61517CC3B88C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5608,7 +5586,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9470972D-7CD3-463C-B931-09FC8DEB27E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CED6BD-B9C7-4432-875F-049DC9357B0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6032,31 +6010,31 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="C3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="16">
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="G3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6067,31 +6045,31 @@
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="C4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="16">
         <v>1</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6102,31 +6080,31 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="16">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="16">
         <v>5</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="16">
         <v>5</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="16">
         <v>5</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <v>5</v>
       </c>
     </row>
@@ -6137,31 +6115,31 @@
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="C6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="16">
         <v>2</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="16">
         <v>4</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="16">
         <v>1</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="J6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="16">
         <v>3</v>
       </c>
     </row>
@@ -6170,33 +6148,33 @@
         <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="12">
+        <v>46</v>
+      </c>
+      <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="16">
         <v>2.5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="16">
         <v>3.5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>4.5</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="16">
         <v>3</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="16">
         <v>3</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="16">
         <v>4</v>
       </c>
     </row>
@@ -6207,31 +6185,31 @@
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="C8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="16">
         <v>3</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="16">
         <v>2</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="16">
         <v>4</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6242,31 +6220,31 @@
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="C9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6275,33 +6253,33 @@
         <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="12">
+        <v>47</v>
+      </c>
+      <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>2.5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <v>3.38</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <v>4.5</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="16">
         <v>2.75</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="16">
         <v>3.25</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="16">
         <v>3.25</v>
       </c>
     </row>
@@ -6312,31 +6290,31 @@
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="C11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6347,51 +6325,51 @@
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>3</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>2</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>2.5</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="16">
         <v>3.38</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="16">
         <v>4.5</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="16">
         <v>2.75</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="16">
         <v>3.25</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="16">
         <v>3.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{B9AF61CE-82D8-4381-AD4E-C796A90FBAE4}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{6A3CC4BC-D2EB-4E98-951D-F575FA42F728}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{F2A05493-B27D-4F1E-B764-AA84E46A7D29}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{6E0C6988-5947-4C8B-B580-95B8D8B1B410}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{83A5CC13-1E14-4D1E-B506-A5F03909F49D}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{A8285FA1-BB51-43A6-9661-C5D920F89214}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{58B16260-07ED-4125-B8FF-B441EBB2AB43}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{BFCF7DC1-5619-4E5A-9487-F12CB1B2E480}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{94F34ED9-1A73-4CA2-B2C3-AC5C1298BF88}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{0E3156B6-EA92-448D-9794-078A2B45EF35}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{B0BCACE2-5E4B-4FD9-8705-CF0D9D3AF63A}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{08BE6B94-4454-4936-A493-5C1D98E6E95A}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{9D4F4DB3-0DAF-4B38-94B5-615817F23BD7}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{91E93907-9084-4ED3-B487-3DC94E819DE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFE835D-5FA1-42F6-BD7E-C5890EC438C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A8B7DD-68A1-43FF-ACDC-54E74B7671E7}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -6403,8 +6381,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6433,7 +6410,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6443,16 +6420,16 @@
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.20300000000000001</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0.17560000000000001</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.23230000000000001</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.20930000000000001</v>
       </c>
       <c r="G2" s="9">
@@ -6466,16 +6443,16 @@
       <c r="B3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.20300000000000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.17560000000000001</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0.23230000000000001</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0.20930000000000001</v>
       </c>
       <c r="G3" s="9">
@@ -6489,16 +6466,16 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6512,16 +6489,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6535,16 +6512,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -6558,16 +6535,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -6581,16 +6558,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -6604,16 +6581,16 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -6627,16 +6604,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -6650,16 +6627,16 @@
       <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -6677,7 +6654,7 @@
       <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6688,7 +6665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB05E8DE-675A-4806-BB56-D1E5BCBFEC77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EBED4B-E3FC-45EC-9316-0EB62307D62C}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -6700,8 +6677,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="4" width="7.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6730,7 +6706,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6740,16 +6716,16 @@
       <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.47620000000000001</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>0.8</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>0.2</v>
       </c>
       <c r="G2" s="9">
@@ -6763,16 +6739,16 @@
       <c r="B3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.47620000000000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>0.8</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>0.2</v>
       </c>
       <c r="G3" s="9">
@@ -6786,16 +6762,16 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6809,16 +6785,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6832,16 +6808,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -6855,16 +6831,16 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -6878,16 +6854,16 @@
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -6901,16 +6877,16 @@
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -6924,16 +6900,16 @@
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -6947,16 +6923,16 @@
       <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -6974,7 +6950,7 @@
       <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6985,7 +6961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2EB8F-FE70-4B3E-B7AF-DB605DE823BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A3315B-160A-4BE0-B948-CA16B1B63D3B}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -6997,7 +6973,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7026,7 +7002,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7036,16 +7012,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>53772.83</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>50456.26</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <v>64744.5</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>47782</v>
       </c>
       <c r="G2" s="9">
@@ -7059,16 +7035,16 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>41252.32</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>46152.42</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>41276.49</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>35494</v>
       </c>
       <c r="G3" s="9">
@@ -7082,16 +7058,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>40073.550000000003</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>43548.23</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>41720.04</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>34551</v>
       </c>
       <c r="G4" s="9">
@@ -7105,16 +7081,16 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>38931.15</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>32597.69</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>39759.24</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>45437</v>
       </c>
       <c r="G5" s="9">
@@ -7128,16 +7104,16 @@
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="9">
@@ -7151,16 +7127,16 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="9">
@@ -7174,16 +7150,16 @@
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>0</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="9">
@@ -7197,16 +7173,16 @@
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>0</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="9">
@@ -7220,16 +7196,16 @@
       <c r="B10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="9">
@@ -7243,16 +7219,16 @@
       <c r="B11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>42887.73</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>43904.04</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>45562.89</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="13">
         <v>39264.29</v>
       </c>
       <c r="G11" s="9">
@@ -7281,7 +7257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19F5E22-D916-4BCD-97D0-02E18B1014A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0F026B-83E6-4329-AFE0-63D472F2E113}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -7293,8 +7269,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="5" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7323,7 +7298,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7333,16 +7308,16 @@
       <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2.56</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>2.5</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>3</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2.5</v>
       </c>
       <c r="G2" s="9">
@@ -7356,16 +7331,16 @@
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>3.02</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>3</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>2.93</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>3.2</v>
       </c>
       <c r="G3" s="9">
@@ -7379,16 +7354,16 @@
       <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>3.48</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>3.32</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>3.44</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>3.7</v>
       </c>
       <c r="G4" s="9">
@@ -7402,16 +7377,16 @@
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>4.6100000000000003</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>4.3</v>
       </c>
       <c r="G5" s="9">
@@ -7425,16 +7400,16 @@
       <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>3.52</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>3.43</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>3.64</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>3.5</v>
       </c>
       <c r="G6" s="9">
@@ -7448,16 +7423,16 @@
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -7471,16 +7446,16 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -7494,16 +7469,16 @@
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -7517,16 +7492,16 @@
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -7540,16 +7515,16 @@
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -7567,7 +7542,7 @@
       <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7578,7 +7553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0023B561-3B19-406F-941B-6AA8C8489125}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A661767-1CEF-4C56-A1BB-3626BFC6BA23}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -7590,7 +7565,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7619,7 +7595,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7629,16 +7605,16 @@
       <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>14.54</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>15.48</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>13.44</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>14.95</v>
       </c>
       <c r="G2" s="9">
@@ -7652,16 +7628,16 @@
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>12.56</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>14</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>13.67</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>10.27</v>
       </c>
       <c r="G3" s="9">
@@ -7675,16 +7651,16 @@
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>12.17</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>11.74</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>11.78</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>13.06</v>
       </c>
       <c r="G4" s="9">
@@ -7698,16 +7674,16 @@
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3.67</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>2.4300000000000002</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>4.42</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>4.25</v>
       </c>
       <c r="G5" s="9">
@@ -7721,16 +7697,16 @@
       <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>15.4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>15.85</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>15.12</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>15.29</v>
       </c>
       <c r="G6" s="9">
@@ -7744,16 +7720,16 @@
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -7767,16 +7743,16 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -7790,16 +7766,16 @@
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -7813,16 +7789,16 @@
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -7836,16 +7812,16 @@
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -7863,7 +7839,7 @@
       <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7874,7 +7850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42746D9E-8FA0-4D8B-A85D-86186C1EB401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4DBEE-597A-4EB0-B1C6-8972A51ECE4B}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -7886,7 +7862,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7915,7 +7891,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7925,16 +7901,16 @@
       <c r="B2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>2</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>2</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>3</v>
       </c>
       <c r="G2" s="9">
@@ -7948,16 +7924,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -7971,16 +7947,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -7994,16 +7970,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -8017,16 +7993,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -8040,16 +8016,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -8063,16 +8039,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -8086,16 +8062,16 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -8109,16 +8085,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -8132,16 +8108,16 @@
       <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -8159,7 +8135,7 @@
       <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8170,7 +8146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D7E4C7-E6B3-4004-858B-736003CB1B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACAB0B6-1C96-4DE6-B7F5-B539961D7553}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -8211,7 +8187,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -8221,16 +8197,16 @@
       <c r="B2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="9">
@@ -8244,16 +8220,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -8267,16 +8243,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -8290,16 +8266,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -8313,16 +8289,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -8336,16 +8312,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -8359,16 +8335,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -8382,16 +8358,16 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -8405,16 +8381,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -8428,16 +8404,16 @@
       <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -8455,7 +8431,7 @@
       <sortCondition ref="G1:G11"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/傳播學院.xlsx
+++ b/test/1. 各院彙整資料/傳播學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EF2F9D-699A-4B09-81FF-DD3B1ECDACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07691928-8D2F-42A6-A14F-32747DF5B589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{2F48443A-10B0-4271-8EB6-1234EEF64542}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{2F48443A-10B0-4271-8EB6-1234EEF64542}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$11</definedName>
@@ -583,7 +583,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3587-458C-A2A3-E51D5F6C5007}"/>
+              <c16:uniqueId val="{00000000-7F6A-4BD2-897D-992C4636D3DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,7 +647,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3587-458C-A2A3-E51D5F6C5007}"/>
+              <c16:uniqueId val="{00000001-7F6A-4BD2-897D-992C4636D3DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -711,7 +711,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3587-458C-A2A3-E51D5F6C5007}"/>
+              <c16:uniqueId val="{00000002-7F6A-4BD2-897D-992C4636D3DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -929,7 +929,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3587-458C-A2A3-E51D5F6C5007}"/>
+              <c16:uniqueId val="{00000004-7F6A-4BD2-897D-992C4636D3DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1239,7 +1239,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-73C1-4980-87C6-2028049BB47B}"/>
+              <c16:uniqueId val="{00000000-9CE9-4070-8F44-56FD54477018}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1303,7 +1303,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-73C1-4980-87C6-2028049BB47B}"/>
+              <c16:uniqueId val="{00000001-9CE9-4070-8F44-56FD54477018}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1367,7 +1367,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-73C1-4980-87C6-2028049BB47B}"/>
+              <c16:uniqueId val="{00000002-9CE9-4070-8F44-56FD54477018}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1585,7 +1585,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-73C1-4980-87C6-2028049BB47B}"/>
+              <c16:uniqueId val="{00000004-9CE9-4070-8F44-56FD54477018}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1943,7 +1943,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C8DF-4AD7-B654-209896CC8E39}"/>
+              <c16:uniqueId val="{00000000-DCAE-47C4-A183-7CE858C9C439}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2055,7 +2055,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C8DF-4AD7-B654-209896CC8E39}"/>
+              <c16:uniqueId val="{00000001-DCAE-47C4-A183-7CE858C9C439}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2167,7 +2167,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C8DF-4AD7-B654-209896CC8E39}"/>
+              <c16:uniqueId val="{00000002-DCAE-47C4-A183-7CE858C9C439}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2433,7 +2433,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C8DF-4AD7-B654-209896CC8E39}"/>
+              <c16:uniqueId val="{00000004-DCAE-47C4-A183-7CE858C9C439}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2761,7 +2761,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A6FA-47FE-96E0-DA72F8E437AF}"/>
+              <c16:uniqueId val="{00000000-7845-4549-84B7-64ADAD0794E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2843,7 +2843,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A6FA-47FE-96E0-DA72F8E437AF}"/>
+              <c16:uniqueId val="{00000001-7845-4549-84B7-64ADAD0794E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2925,7 +2925,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A6FA-47FE-96E0-DA72F8E437AF}"/>
+              <c16:uniqueId val="{00000002-7845-4549-84B7-64ADAD0794E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3161,7 +3161,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A6FA-47FE-96E0-DA72F8E437AF}"/>
+              <c16:uniqueId val="{00000004-7845-4549-84B7-64ADAD0794E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3489,7 +3489,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-837D-43F8-B56C-97C6350F07F6}"/>
+              <c16:uniqueId val="{00000000-9E52-4FAD-A2B5-98470D107626}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3571,7 +3571,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-837D-43F8-B56C-97C6350F07F6}"/>
+              <c16:uniqueId val="{00000001-9E52-4FAD-A2B5-98470D107626}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3653,7 +3653,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-837D-43F8-B56C-97C6350F07F6}"/>
+              <c16:uniqueId val="{00000002-9E52-4FAD-A2B5-98470D107626}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3889,7 +3889,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-837D-43F8-B56C-97C6350F07F6}"/>
+              <c16:uniqueId val="{00000004-9E52-4FAD-A2B5-98470D107626}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4193,7 +4193,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43E1-4CE9-BCBB-A539FF0F3488}"/>
+              <c16:uniqueId val="{00000000-EAB6-4061-93CC-49127EAEEBBB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4251,7 +4251,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43E1-4CE9-BCBB-A539FF0F3488}"/>
+              <c16:uniqueId val="{00000001-EAB6-4061-93CC-49127EAEEBBB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4309,7 +4309,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-43E1-4CE9-BCBB-A539FF0F3488}"/>
+              <c16:uniqueId val="{00000002-EAB6-4061-93CC-49127EAEEBBB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4424,7 +4424,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-43E1-4CE9-BCBB-A539FF0F3488}"/>
+                  <c16:uniqueId val="{00000003-EAB6-4061-93CC-49127EAEEBBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4524,7 +4524,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-43E1-4CE9-BCBB-A539FF0F3488}"/>
+              <c16:uniqueId val="{00000004-EAB6-4061-93CC-49127EAEEBBB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4828,7 +4828,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24C5-4ECC-8E3A-98721E86E0FD}"/>
+              <c16:uniqueId val="{00000000-E5C8-492D-8BDA-A5AF912F0833}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4886,7 +4886,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-24C5-4ECC-8E3A-98721E86E0FD}"/>
+              <c16:uniqueId val="{00000001-E5C8-492D-8BDA-A5AF912F0833}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4944,7 +4944,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-24C5-4ECC-8E3A-98721E86E0FD}"/>
+              <c16:uniqueId val="{00000002-E5C8-492D-8BDA-A5AF912F0833}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5059,7 +5059,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-24C5-4ECC-8E3A-98721E86E0FD}"/>
+                  <c16:uniqueId val="{00000003-E5C8-492D-8BDA-A5AF912F0833}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5159,7 +5159,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-24C5-4ECC-8E3A-98721E86E0FD}"/>
+              <c16:uniqueId val="{00000004-E5C8-492D-8BDA-A5AF912F0833}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5388,7 +5388,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D935C44-9ACA-4852-BBBB-08BD24B0538E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5175D2A6-ED14-43CC-B9CE-223CEF463C5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5421,7 +5421,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D2EB72-393C-400D-B700-27AE8407812E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AAA02F-4979-4E80-B204-C6559941E05C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5454,7 +5454,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D7D55A-BEAB-476D-92E2-C530DBF705E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C36F5D8-7C7B-4A79-B454-13A3F16F227A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5487,7 +5487,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BC067A-E404-403A-90BB-7849563D7AD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6E6249-D4E8-4659-952B-8A7A9F1B9A12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5520,7 +5520,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628DFFE8-3007-4C91-9A8A-A5F6CB67DCAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD12ADCD-9BE0-4456-862D-03CE578B1B29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5553,7 +5553,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D521EE2-DB24-44A6-ACB4-61517CC3B88C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0BF904-A647-4FBC-BC47-022CD80CD986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5586,7 +5586,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CED6BD-B9C7-4432-875F-049DC9357B0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D113F9D-C1F9-4D01-9171-6B627B6052DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6356,22 +6356,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{BFCF7DC1-5619-4E5A-9487-F12CB1B2E480}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{94F34ED9-1A73-4CA2-B2C3-AC5C1298BF88}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{0E3156B6-EA92-448D-9794-078A2B45EF35}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{B0BCACE2-5E4B-4FD9-8705-CF0D9D3AF63A}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{08BE6B94-4454-4936-A493-5C1D98E6E95A}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{9D4F4DB3-0DAF-4B38-94B5-615817F23BD7}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{91E93907-9084-4ED3-B487-3DC94E819DE6}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{4C1E61EB-4BFB-4946-A738-3F252942F6E0}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{ABE6C2E0-8AD7-4B16-A297-C6B3AC7D9765}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{D3673D36-4603-43C2-BA66-34F707EE50DA}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{78109DF3-8898-4A3A-9536-06893E7F0F40}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{8333E133-24E7-42A4-8928-BC1A148648AA}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{324BE0A2-FACA-4C09-A101-92F9EA2CF0E5}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{E11F173C-A44B-45E0-A5DE-ACA6B516DF23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A8B7DD-68A1-43FF-ACDC-54E74B7671E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D917F0B7-8ACB-4857-A75D-899D1AE8F5F8}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6387,7 +6387,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -6409,11 +6409,11 @@
       <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -6665,9 +6665,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EBED4B-E3FC-45EC-9316-0EB62307D62C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04044CE0-C428-4D42-8F50-17F5DF6FF538}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6683,7 +6683,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -6705,11 +6705,11 @@
       <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -6961,9 +6961,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A3315B-160A-4BE0-B948-CA16B1B63D3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29115BA1-9AEF-451C-8D3D-FCAA02F6380E}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6979,7 +6979,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -7001,11 +7001,11 @@
       <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -7257,9 +7257,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0F026B-83E6-4329-AFE0-63D472F2E113}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98B47C2-E9BE-4BEE-8FA3-DAA224642696}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7275,7 +7275,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -7297,11 +7297,11 @@
       <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -7553,9 +7553,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A661767-1CEF-4C56-A1BB-3626BFC6BA23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A03F02-554D-4118-B35F-F71E18055E8A}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7572,7 +7572,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -7594,11 +7594,11 @@
       <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -7850,9 +7850,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4DBEE-597A-4EB0-B1C6-8972A51ECE4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743D3888-9BF2-4F43-9DDF-24A29FF49F92}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7868,7 +7868,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -7890,11 +7890,11 @@
       <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -8146,9 +8146,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACAB0B6-1C96-4DE6-B7F5-B539961D7553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3DACC4-344E-4D10-BD33-5A1EFE9B40C2}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8164,7 +8164,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -8186,11 +8186,11 @@
       <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
